--- a/BugReport.xlsx
+++ b/BugReport.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC10946-11C6-4B18-B189-43C8138F22BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2FBB65-8632-4F6D-B6F5-7AAC325D46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A17DB085-40AF-401B-8F04-1173096D9C94}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A17DB085-40AF-401B-8F04-1173096D9C94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="572">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -54,9 +55,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
   </si>
   <si>
     <t>Mini Statement</t>
@@ -101,16 +99,10 @@
 "First character cannot be a space in Account No"</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Bug#</t>
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t>Situation in V1</t>
   </si>
   <si>
     <t>Verify Customer Name</t>
@@ -346,30 +338,6 @@
     <t>TC_NC_038</t>
   </si>
   <si>
-    <t>B_001</t>
-  </si>
-  <si>
-    <t>B_002</t>
-  </si>
-  <si>
-    <t>B_003</t>
-  </si>
-  <si>
-    <t>B_004</t>
-  </si>
-  <si>
-    <t>B_005</t>
-  </si>
-  <si>
-    <t>B_006</t>
-  </si>
-  <si>
-    <t>B_026</t>
-  </si>
-  <si>
-    <t>B_032</t>
-  </si>
-  <si>
     <t>New Customer</t>
   </si>
   <si>
@@ -945,135 +913,6 @@
     <t>Edit Customer</t>
   </si>
   <si>
-    <t>B_007</t>
-  </si>
-  <si>
-    <t>B_008</t>
-  </si>
-  <si>
-    <t>B_009</t>
-  </si>
-  <si>
-    <t>B_010</t>
-  </si>
-  <si>
-    <t>B_011</t>
-  </si>
-  <si>
-    <t>B_012</t>
-  </si>
-  <si>
-    <t>B_013</t>
-  </si>
-  <si>
-    <t>B_014</t>
-  </si>
-  <si>
-    <t>B_015</t>
-  </si>
-  <si>
-    <t>B_016</t>
-  </si>
-  <si>
-    <t>B_017</t>
-  </si>
-  <si>
-    <t>B_018</t>
-  </si>
-  <si>
-    <t>B_019</t>
-  </si>
-  <si>
-    <t>B_020</t>
-  </si>
-  <si>
-    <t>B_021</t>
-  </si>
-  <si>
-    <t>B_022</t>
-  </si>
-  <si>
-    <t>B_023</t>
-  </si>
-  <si>
-    <t>B_024</t>
-  </si>
-  <si>
-    <t>B_025</t>
-  </si>
-  <si>
-    <t>B_027</t>
-  </si>
-  <si>
-    <t>B_028</t>
-  </si>
-  <si>
-    <t>B_029</t>
-  </si>
-  <si>
-    <t>B_030</t>
-  </si>
-  <si>
-    <t>B_031</t>
-  </si>
-  <si>
-    <t>B_033</t>
-  </si>
-  <si>
-    <t>B_034</t>
-  </si>
-  <si>
-    <t>B_035</t>
-  </si>
-  <si>
-    <t>B_036</t>
-  </si>
-  <si>
-    <t>B_037</t>
-  </si>
-  <si>
-    <t>B_038</t>
-  </si>
-  <si>
-    <t>B_039</t>
-  </si>
-  <si>
-    <t>B_040</t>
-  </si>
-  <si>
-    <t>B_041</t>
-  </si>
-  <si>
-    <t>B_042</t>
-  </si>
-  <si>
-    <t>B_043</t>
-  </si>
-  <si>
-    <t>B_044</t>
-  </si>
-  <si>
-    <t>B_045</t>
-  </si>
-  <si>
-    <t>B_046</t>
-  </si>
-  <si>
-    <t>B_047</t>
-  </si>
-  <si>
-    <t>B_048</t>
-  </si>
-  <si>
-    <t>B_049</t>
-  </si>
-  <si>
-    <t>B_050</t>
-  </si>
-  <si>
-    <t>B_051</t>
-  </si>
-  <si>
     <t>TC_NA_002</t>
   </si>
   <si>
@@ -1214,36 +1053,6 @@
     <t>New Account</t>
   </si>
   <si>
-    <t>B_052</t>
-  </si>
-  <si>
-    <t>B_053</t>
-  </si>
-  <si>
-    <t>B_054</t>
-  </si>
-  <si>
-    <t>B_055</t>
-  </si>
-  <si>
-    <t>B_056</t>
-  </si>
-  <si>
-    <t>B_057</t>
-  </si>
-  <si>
-    <t>B_058</t>
-  </si>
-  <si>
-    <t>B_059</t>
-  </si>
-  <si>
-    <t>B_060</t>
-  </si>
-  <si>
-    <t>B_061</t>
-  </si>
-  <si>
     <t>TC_EA_006</t>
   </si>
   <si>
@@ -1607,95 +1416,499 @@
     <t>Customized Statement</t>
   </si>
   <si>
-    <t>B_062</t>
-  </si>
-  <si>
-    <t>B_063</t>
-  </si>
-  <si>
-    <t>B_064</t>
-  </si>
-  <si>
-    <t>B_065</t>
-  </si>
-  <si>
-    <t>B_066</t>
-  </si>
-  <si>
-    <t>B_067</t>
-  </si>
-  <si>
-    <t>B_068</t>
-  </si>
-  <si>
-    <t>B_069</t>
-  </si>
-  <si>
-    <t>B_070</t>
-  </si>
-  <si>
-    <t>B_071</t>
-  </si>
-  <si>
-    <t>B_072</t>
-  </si>
-  <si>
-    <t>B_073</t>
-  </si>
-  <si>
-    <t>B_074</t>
-  </si>
-  <si>
-    <t>B_075</t>
-  </si>
-  <si>
-    <t>B_076</t>
-  </si>
-  <si>
-    <t>B_077</t>
-  </si>
-  <si>
-    <t>B_078</t>
-  </si>
-  <si>
-    <t>B_079</t>
-  </si>
-  <si>
-    <t>B_080</t>
-  </si>
-  <si>
-    <t>B_081</t>
-  </si>
-  <si>
-    <t>B_082</t>
-  </si>
-  <si>
-    <t>B_083</t>
-  </si>
-  <si>
-    <t>B_084</t>
-  </si>
-  <si>
-    <t>B_085</t>
-  </si>
-  <si>
-    <t>B_086</t>
-  </si>
-  <si>
-    <t>B_087</t>
-  </si>
-  <si>
-    <t>B_088</t>
-  </si>
-  <si>
-    <t>B_089</t>
+    <t>Actual Result in v1</t>
+  </si>
+  <si>
+    <t>Actual Result in v2</t>
+  </si>
+  <si>
+    <t>B_v1_001</t>
+  </si>
+  <si>
+    <t>B_v1_002</t>
+  </si>
+  <si>
+    <t>B_v1_003</t>
+  </si>
+  <si>
+    <t>B_v1_004</t>
+  </si>
+  <si>
+    <t>B_v1_005</t>
+  </si>
+  <si>
+    <t>B_v1_006</t>
+  </si>
+  <si>
+    <t>B_v1_007</t>
+  </si>
+  <si>
+    <t>B_v1_008</t>
+  </si>
+  <si>
+    <t>B_v1_009</t>
+  </si>
+  <si>
+    <t>B_v1_010</t>
+  </si>
+  <si>
+    <t>B_v1_011</t>
+  </si>
+  <si>
+    <t>B_v1_012</t>
+  </si>
+  <si>
+    <t>B_v1_013</t>
+  </si>
+  <si>
+    <t>B_v1_014</t>
+  </si>
+  <si>
+    <t>B_v1_015</t>
+  </si>
+  <si>
+    <t>B_v1_016</t>
+  </si>
+  <si>
+    <t>B_v1_017</t>
+  </si>
+  <si>
+    <t>B_v1_018</t>
+  </si>
+  <si>
+    <t>B_v1_019</t>
+  </si>
+  <si>
+    <t>B_v1_020</t>
+  </si>
+  <si>
+    <t>B_v1_021</t>
+  </si>
+  <si>
+    <t>B_v1_022</t>
+  </si>
+  <si>
+    <t>B_v1_023</t>
+  </si>
+  <si>
+    <t>B_v1_024</t>
+  </si>
+  <si>
+    <t>B_v1_025</t>
+  </si>
+  <si>
+    <t>B_v1_026</t>
+  </si>
+  <si>
+    <t>B_v1_027</t>
+  </si>
+  <si>
+    <t>B_v1_028</t>
+  </si>
+  <si>
+    <t>B_v1_029</t>
+  </si>
+  <si>
+    <t>B_v1_030</t>
+  </si>
+  <si>
+    <t>B_v1_031</t>
+  </si>
+  <si>
+    <t>B_v1_032</t>
+  </si>
+  <si>
+    <t>B_v1_033</t>
+  </si>
+  <si>
+    <t>B_v1_034</t>
+  </si>
+  <si>
+    <t>B_v1_035</t>
+  </si>
+  <si>
+    <t>B_v1_036</t>
+  </si>
+  <si>
+    <t>B_v1_037</t>
+  </si>
+  <si>
+    <t>B_v1_038</t>
+  </si>
+  <si>
+    <t>B_v1_039</t>
+  </si>
+  <si>
+    <t>B_v1_040</t>
+  </si>
+  <si>
+    <t>B_v1_041</t>
+  </si>
+  <si>
+    <t>B_v1_042</t>
+  </si>
+  <si>
+    <t>B_v1_043</t>
+  </si>
+  <si>
+    <t>B_v1_044</t>
+  </si>
+  <si>
+    <t>B_v1_045</t>
+  </si>
+  <si>
+    <t>B_v1_046</t>
+  </si>
+  <si>
+    <t>B_v1_047</t>
+  </si>
+  <si>
+    <t>B_v1_048</t>
+  </si>
+  <si>
+    <t>B_v1_049</t>
+  </si>
+  <si>
+    <t>B_v1_050</t>
+  </si>
+  <si>
+    <t>B_v1_051</t>
+  </si>
+  <si>
+    <t>B_v1_052</t>
+  </si>
+  <si>
+    <t>B_v1_053</t>
+  </si>
+  <si>
+    <t>B_v1_054</t>
+  </si>
+  <si>
+    <t>B_v1_055</t>
+  </si>
+  <si>
+    <t>B_v1_056</t>
+  </si>
+  <si>
+    <t>B_v1_057</t>
+  </si>
+  <si>
+    <t>B_v1_058</t>
+  </si>
+  <si>
+    <t>B_v1_059</t>
+  </si>
+  <si>
+    <t>B_v1_060</t>
+  </si>
+  <si>
+    <t>B_v1_061</t>
+  </si>
+  <si>
+    <t>B_v1_062</t>
+  </si>
+  <si>
+    <t>B_v1_063</t>
+  </si>
+  <si>
+    <t>B_v1_064</t>
+  </si>
+  <si>
+    <t>B_v1_065</t>
+  </si>
+  <si>
+    <t>B_v1_066</t>
+  </si>
+  <si>
+    <t>B_v1_067</t>
+  </si>
+  <si>
+    <t>B_v1_068</t>
+  </si>
+  <si>
+    <t>B_v1_069</t>
+  </si>
+  <si>
+    <t>B_v1_070</t>
+  </si>
+  <si>
+    <t>B_v1_071</t>
+  </si>
+  <si>
+    <t>B_v1_072</t>
+  </si>
+  <si>
+    <t>B_v1_073</t>
+  </si>
+  <si>
+    <t>B_v1_074</t>
+  </si>
+  <si>
+    <t>B_v1_075</t>
+  </si>
+  <si>
+    <t>B_v1_076</t>
+  </si>
+  <si>
+    <t>B_v1_077</t>
+  </si>
+  <si>
+    <t>B_v1_078</t>
+  </si>
+  <si>
+    <t>B_v1_079</t>
+  </si>
+  <si>
+    <t>B_v1_080</t>
+  </si>
+  <si>
+    <t>B_v1_081</t>
+  </si>
+  <si>
+    <t>B_v1_082</t>
+  </si>
+  <si>
+    <t>B_v1_083</t>
+  </si>
+  <si>
+    <t>B_v1_084</t>
+  </si>
+  <si>
+    <t>B_v1_085</t>
+  </si>
+  <si>
+    <t>B_v1_086</t>
+  </si>
+  <si>
+    <t>B_v1_087</t>
+  </si>
+  <si>
+    <t>B_v1_088</t>
+  </si>
+  <si>
+    <t>B_v1_089</t>
+  </si>
+  <si>
+    <t>B_v2_001</t>
+  </si>
+  <si>
+    <t>TC_NC_039</t>
+  </si>
+  <si>
+    <t>Top level domain must not be pure numerical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting an invalid Email
+(adding an Email with tld is all numbers) </t>
+  </si>
+  <si>
+    <t>Email: "orjanlarsen32@gmail.123"</t>
+  </si>
+  <si>
+    <t>TC_NC_040</t>
+  </si>
+  <si>
+    <t>Top level domain last character must not be numerical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting an invalid Email
+(adding an Email with the first character of tld is a number) </t>
+  </si>
+  <si>
+    <t>Email: "orjanlarsen32@gmail.co5"</t>
+  </si>
+  <si>
+    <t>B_v2_002</t>
+  </si>
+  <si>
+    <t>B_v2_003</t>
+  </si>
+  <si>
+    <t>B_v2_004</t>
+  </si>
+  <si>
+    <t>B_v2_005</t>
+  </si>
+  <si>
+    <t>B_v2_006</t>
+  </si>
+  <si>
+    <t>B_v2_007</t>
+  </si>
+  <si>
+    <t>B_v2_008</t>
+  </si>
+  <si>
+    <t>B_v2_009</t>
+  </si>
+  <si>
+    <t>B_v2_010</t>
+  </si>
+  <si>
+    <t>B_v2_011</t>
+  </si>
+  <si>
+    <t>B_v2_012</t>
+  </si>
+  <si>
+    <t>B_v2_013</t>
+  </si>
+  <si>
+    <t>B_v2_014</t>
+  </si>
+  <si>
+    <t>B_v2_015</t>
+  </si>
+  <si>
+    <t>B_v2_016</t>
+  </si>
+  <si>
+    <t>B_v2_017</t>
+  </si>
+  <si>
+    <t>B_v2_018</t>
+  </si>
+  <si>
+    <t>B_v2_019</t>
+  </si>
+  <si>
+    <t>B_v2_020</t>
+  </si>
+  <si>
+    <t>B_v2_021</t>
+  </si>
+  <si>
+    <t>B_v2_022</t>
+  </si>
+  <si>
+    <t>B_v2_023</t>
+  </si>
+  <si>
+    <t>B_v2_024</t>
+  </si>
+  <si>
+    <t>B_v2_025</t>
+  </si>
+  <si>
+    <t>B_v2_026</t>
+  </si>
+  <si>
+    <t>B_v2_027</t>
+  </si>
+  <si>
+    <t>B_v2_028</t>
+  </si>
+  <si>
+    <t>B_v2_029</t>
+  </si>
+  <si>
+    <t>B_v2_030</t>
+  </si>
+  <si>
+    <t>B_v2_031</t>
+  </si>
+  <si>
+    <t>B_v2_032</t>
+  </si>
+  <si>
+    <t>B_v2_033</t>
+  </si>
+  <si>
+    <t>B_v2_034</t>
+  </si>
+  <si>
+    <t>B_v2_035</t>
+  </si>
+  <si>
+    <t>B_v2_036</t>
+  </si>
+  <si>
+    <t>B_v2_037</t>
+  </si>
+  <si>
+    <t>B_v2_038</t>
+  </si>
+  <si>
+    <t>B_v2_039</t>
+  </si>
+  <si>
+    <t>B_v2_040</t>
+  </si>
+  <si>
+    <t>B_v2_041</t>
+  </si>
+  <si>
+    <t>B_v2_042</t>
+  </si>
+  <si>
+    <t>Edit Account</t>
+  </si>
+  <si>
+    <t>Verify Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>Minimum Transaction Value must not be empty</t>
+  </si>
+  <si>
+    <t>Leaving Minimum Transaction Value field empty</t>
+  </si>
+  <si>
+    <t>1) Click on Minimum Transaction Value field and leave it empty
+2) Press Tab / select other field</t>
+  </si>
+  <si>
+    <t>Error Message Displayed
+"Minimum Transaction Value filed is empty"</t>
+  </si>
+  <si>
+    <t>First character cannot be a space in Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting an invalid Minimum Transaction Value
+(adding an Minimum Transaction Value with the first character is a space) </t>
+  </si>
+  <si>
+    <t>1) Enter a invalid Minimum Transaction Value
+2) Press Tab / select other field</t>
+  </si>
+  <si>
+    <t>Minimum Transaction Value: " 23986"</t>
+  </si>
+  <si>
+    <t>Error Message Displayed
+"First character cannot be a space in Minimum Transaction Value"</t>
+  </si>
+  <si>
+    <t>Customized
+ Statement</t>
+  </si>
+  <si>
+    <t>B_v2_043</t>
+  </si>
+  <si>
+    <t>B_v2_044</t>
+  </si>
+  <si>
+    <t>B_v2_045</t>
+  </si>
+  <si>
+    <t>B_v2_046</t>
+  </si>
+  <si>
+    <t>B_v2_047</t>
+  </si>
+  <si>
+    <t>B_v2_048</t>
+  </si>
+  <si>
+    <t>B_v2_049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,13 +1924,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
@@ -1727,18 +1933,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1753,7 +1960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1813,60 +2020,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2179,13 +2375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE2897-66F1-4B17-8A07-48806F3E875A}">
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="46.5" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
@@ -2196,80 +2393,76 @@
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="36" style="2" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="2" customWidth="1"/>
-    <col min="12" max="25" width="15.140625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="12.5703125" style="2"/>
+    <col min="11" max="11" width="20.5703125" style="2" customWidth="1"/>
+    <col min="12" max="24" width="15.140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2283,42 +2476,39 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" ht="46.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>415</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2332,42 +2522,39 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" ht="46.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>416</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -2381,42 +2568,39 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="46.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>417</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2430,42 +2614,39 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" ht="46.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>418</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2479,42 +2660,39 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" ht="46.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>419</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2528,42 +2706,39 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" ht="46.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2577,42 +2752,39 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" ht="46.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>273</v>
+        <v>421</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -2626,42 +2798,39 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" ht="46.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>274</v>
+        <v>422</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2675,42 +2844,39 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" ht="46.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>275</v>
+        <v>423</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="J11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -2724,42 +2890,39 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" ht="46.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>276</v>
+        <v>424</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -2773,42 +2936,39 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" ht="46.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>277</v>
+        <v>425</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2822,42 +2982,39 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" ht="46.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>278</v>
+        <v>426</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -2871,42 +3028,39 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" ht="46.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>279</v>
+        <v>427</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2920,42 +3074,39 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" ht="46.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2969,42 +3120,39 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" ht="46.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>281</v>
+        <v>429</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -3018,42 +3166,39 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" ht="46.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>282</v>
+        <v>430</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -3067,42 +3212,39 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" ht="46.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>283</v>
+        <v>431</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3116,42 +3258,39 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" ht="46.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>284</v>
+        <v>432</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3165,42 +3304,39 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" ht="46.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>285</v>
+        <v>433</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3214,42 +3350,39 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" ht="46.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>286</v>
+        <v>434</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3263,42 +3396,39 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" ht="46.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>287</v>
+        <v>435</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3312,42 +3442,39 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" ht="46.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>288</v>
+        <v>436</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3361,42 +3488,39 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" ht="46.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3410,42 +3534,39 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" ht="46.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>290</v>
+        <v>438</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3459,42 +3580,39 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:24" ht="46.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>439</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3508,42 +3626,39 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" ht="46.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>291</v>
+        <v>440</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3557,42 +3672,39 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:24" ht="46.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3606,42 +3718,39 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:24" ht="46.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>293</v>
+        <v>442</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3655,42 +3764,39 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" ht="46.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>294</v>
+        <v>443</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3704,42 +3810,39 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" ht="46.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>295</v>
+        <v>444</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3753,42 +3856,39 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:24" ht="46.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3802,42 +3902,39 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:24" ht="46.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>296</v>
+        <v>446</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3851,42 +3948,39 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:24" ht="46.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3900,42 +3994,39 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:24" ht="46.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -3949,42 +4040,39 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:24" ht="46.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>299</v>
+        <v>449</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -3998,42 +4086,39 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" ht="46.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -4047,42 +4132,39 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:24" ht="46.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4096,42 +4178,39 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:24" ht="46.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>302</v>
+        <v>452</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -4145,42 +4224,39 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:24" ht="46.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>303</v>
+        <v>453</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4194,40 +4270,37 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:24" ht="46.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -4241,42 +4314,39 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:24" ht="46.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>455</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4290,42 +4360,39 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:24" ht="46.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -4339,42 +4406,39 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:24" ht="46.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4388,42 +4452,39 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-    </row>
-    <row r="46" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:24" ht="46.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>308</v>
+        <v>458</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -4437,42 +4498,39 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-    </row>
-    <row r="47" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:24" ht="46.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4486,40 +4544,37 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:24" ht="46.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4533,42 +4588,39 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:24" ht="46.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>311</v>
+        <v>461</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -4582,42 +4634,39 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:24" ht="46.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -4631,42 +4680,39 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:24" ht="46.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>313</v>
+        <v>463</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4680,42 +4726,39 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:24" ht="46.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>314</v>
+        <v>464</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4729,40 +4772,37 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:24" ht="46.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>357</v>
+        <v>465</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -4776,42 +4816,39 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:24" ht="46.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>358</v>
+        <v>466</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -4825,42 +4862,39 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:24" ht="46.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -4874,42 +4908,39 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:24" ht="46.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -4923,42 +4954,39 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:24" ht="46.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -4972,40 +5000,37 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:24" ht="46.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -5019,42 +5044,39 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:24" ht="46.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -5068,42 +5090,39 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:24" ht="46.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -5117,42 +5136,39 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:24" ht="46.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -5166,42 +5182,39 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:24" ht="46.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -5215,42 +5228,39 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:24" ht="46.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -5264,42 +5274,39 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:24" ht="46.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -5313,40 +5320,37 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-    </row>
-    <row r="65" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:24" ht="46.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -5360,42 +5364,39 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-    </row>
-    <row r="66" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:24" ht="46.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -5409,42 +5410,39 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-    </row>
-    <row r="67" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:24" ht="46.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -5458,42 +5456,39 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:24" ht="46.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -5507,42 +5502,39 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:24" ht="46.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -5556,42 +5548,39 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-    </row>
-    <row r="70" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:24" ht="46.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -5605,40 +5594,37 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:24" ht="46.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -5652,671 +5638,2236 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:24" ht="46.5" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="B77" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="46.5" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="B81" s="2" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="46.5" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="B86" s="2" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDDC7A9-824D-43A3-B16A-32FB04735636}">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="21" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>19</v>
+      <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>